--- a/Demo字节码解析.xlsx
+++ b/Demo字节码解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkSpace\Java\IJCode\JVM-中篇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452854E8-8854-4EEB-B772-DE9B07789E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52CF14C-0C03-4BE7-B0AF-31994306E631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初级Demo字节码" sheetId="1" r:id="rId1"/>
@@ -3196,7 +3196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="304">
   <si>
     <t>ca</t>
   </si>
@@ -4322,6 +4322,10 @@
   </si>
   <si>
     <t>bootstrap_method_attr_index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类访问标识</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6499,18 +6503,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="67" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="67" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6532,22 +6536,22 @@
     <xf numFmtId="0" fontId="24" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10890,8 +10894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI262"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB113" sqref="AB113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11237,15 +11241,15 @@
       <c r="X5" s="108">
         <v>22</v>
       </c>
-      <c r="Z5" s="254" t="s">
+      <c r="Z5" s="253" t="s">
         <v>121</v>
       </c>
-      <c r="AA5" s="254"/>
-      <c r="AB5" s="254"/>
-      <c r="AC5" s="254"/>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
+      <c r="AA5" s="253"/>
+      <c r="AB5" s="253"/>
+      <c r="AC5" s="253"/>
+      <c r="AD5" s="253"/>
+      <c r="AE5" s="253"/>
+      <c r="AF5" s="253"/>
     </row>
     <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="108" t="s">
@@ -11771,15 +11775,15 @@
       <c r="X12" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Z12" s="254" t="s">
+      <c r="Z12" s="253" t="s">
         <v>121</v>
       </c>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="254"/>
-      <c r="AD12" s="254"/>
-      <c r="AE12" s="254"/>
-      <c r="AF12" s="254"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="108">
@@ -14177,15 +14181,15 @@
       <c r="X38" s="180">
         <v>13</v>
       </c>
-      <c r="Z38" s="253" t="s">
+      <c r="Z38" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA38" s="253"/>
-      <c r="AB38" s="253"/>
-      <c r="AC38" s="253"/>
-      <c r="AD38" s="253"/>
-      <c r="AE38" s="253"/>
-      <c r="AF38" s="253"/>
+      <c r="AA38" s="256"/>
+      <c r="AB38" s="256"/>
+      <c r="AC38" s="256"/>
+      <c r="AD38" s="256"/>
+      <c r="AE38" s="256"/>
+      <c r="AF38" s="256"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39" s="163">
@@ -14255,15 +14259,15 @@
       <c r="X39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Z39" s="253" t="s">
+      <c r="Z39" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA39" s="253"/>
-      <c r="AB39" s="253"/>
-      <c r="AC39" s="253"/>
-      <c r="AD39" s="253"/>
-      <c r="AE39" s="253"/>
-      <c r="AF39" s="253"/>
+      <c r="AA39" s="256"/>
+      <c r="AB39" s="256"/>
+      <c r="AC39" s="256"/>
+      <c r="AD39" s="256"/>
+      <c r="AE39" s="256"/>
+      <c r="AF39" s="256"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40" s="177">
@@ -14422,15 +14426,15 @@
       <c r="X41" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="Z41" s="253" t="s">
+      <c r="Z41" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA41" s="253"/>
-      <c r="AB41" s="253"/>
-      <c r="AC41" s="253"/>
-      <c r="AD41" s="253"/>
-      <c r="AE41" s="253"/>
-      <c r="AF41" s="253"/>
+      <c r="AA41" s="256"/>
+      <c r="AB41" s="256"/>
+      <c r="AC41" s="256"/>
+      <c r="AD41" s="256"/>
+      <c r="AE41" s="256"/>
+      <c r="AF41" s="256"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42" s="214">
@@ -14500,15 +14504,15 @@
       <c r="X42" s="179">
         <v>11</v>
       </c>
-      <c r="Z42" s="253" t="s">
+      <c r="Z42" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA42" s="253"/>
-      <c r="AB42" s="253"/>
-      <c r="AC42" s="253"/>
-      <c r="AD42" s="253"/>
-      <c r="AE42" s="253"/>
-      <c r="AF42" s="253"/>
+      <c r="AA42" s="256"/>
+      <c r="AB42" s="256"/>
+      <c r="AC42" s="256"/>
+      <c r="AD42" s="256"/>
+      <c r="AE42" s="256"/>
+      <c r="AF42" s="256"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43" s="161">
@@ -14735,15 +14739,15 @@
       <c r="V44" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="Z44" s="253" t="s">
+      <c r="Z44" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AA44" s="253"/>
-      <c r="AB44" s="253"/>
-      <c r="AC44" s="253"/>
-      <c r="AD44" s="253"/>
-      <c r="AE44" s="253"/>
-      <c r="AF44" s="253"/>
+      <c r="AA44" s="256"/>
+      <c r="AB44" s="256"/>
+      <c r="AC44" s="256"/>
+      <c r="AD44" s="256"/>
+      <c r="AE44" s="256"/>
+      <c r="AF44" s="256"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45" s="73">
@@ -14813,15 +14817,15 @@
       <c r="X45" s="16">
         <v>30</v>
       </c>
-      <c r="Z45" s="253" t="s">
+      <c r="Z45" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA45" s="253"/>
-      <c r="AB45" s="253"/>
-      <c r="AC45" s="253"/>
-      <c r="AD45" s="253"/>
-      <c r="AE45" s="253"/>
-      <c r="AF45" s="253"/>
+      <c r="AA45" s="256"/>
+      <c r="AB45" s="256"/>
+      <c r="AC45" s="256"/>
+      <c r="AD45" s="256"/>
+      <c r="AE45" s="256"/>
+      <c r="AF45" s="256"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46" s="178">
@@ -14885,15 +14889,15 @@
       <c r="V46" s="108">
         <v>31</v>
       </c>
-      <c r="Z46" s="253" t="s">
+      <c r="Z46" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AA46" s="253"/>
-      <c r="AB46" s="253"/>
-      <c r="AC46" s="253"/>
-      <c r="AD46" s="253"/>
-      <c r="AE46" s="253"/>
-      <c r="AF46" s="253"/>
+      <c r="AA46" s="256"/>
+      <c r="AB46" s="256"/>
+      <c r="AC46" s="256"/>
+      <c r="AD46" s="256"/>
+      <c r="AE46" s="256"/>
+      <c r="AF46" s="256"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47" s="87">
@@ -14963,15 +14967,15 @@
       <c r="X47" s="16">
         <v>19</v>
       </c>
-      <c r="Z47" s="253" t="s">
+      <c r="Z47" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="AA47" s="253"/>
-      <c r="AB47" s="253"/>
-      <c r="AC47" s="253"/>
-      <c r="AD47" s="253"/>
-      <c r="AE47" s="253"/>
-      <c r="AF47" s="253"/>
+      <c r="AA47" s="256"/>
+      <c r="AB47" s="256"/>
+      <c r="AC47" s="256"/>
+      <c r="AD47" s="256"/>
+      <c r="AE47" s="256"/>
+      <c r="AF47" s="256"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48" s="90">
@@ -15811,7 +15815,7 @@
         <v>22</v>
       </c>
       <c r="R55" s="117" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="S55" s="112">
         <v>0</v>
@@ -16378,12 +16382,12 @@
       <c r="V71" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="X71" s="253" t="s">
+      <c r="X71" s="256" t="s">
         <v>234</v>
       </c>
-      <c r="Y71" s="253"/>
-      <c r="Z71" s="253"/>
-      <c r="AA71" s="253"/>
+      <c r="Y71" s="256"/>
+      <c r="Z71" s="256"/>
+      <c r="AA71" s="256"/>
     </row>
     <row r="72" spans="18:27" x14ac:dyDescent="0.2">
       <c r="R72" s="241"/>
@@ -16447,10 +16451,10 @@
       <c r="U75" s="128">
         <v>10</v>
       </c>
-      <c r="W75" s="253" t="s">
+      <c r="W75" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="X75" s="253"/>
+      <c r="X75" s="256"/>
     </row>
     <row r="76" spans="18:27" x14ac:dyDescent="0.2">
       <c r="R76" s="244"/>
@@ -16574,10 +16578,10 @@
       <c r="V85" s="143">
         <v>14</v>
       </c>
-      <c r="X85" s="253" t="s">
+      <c r="X85" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="Y85" s="253"/>
+      <c r="Y85" s="256"/>
     </row>
     <row r="86" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R86" s="246"/>
@@ -16743,7 +16747,7 @@
     <row r="95" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R95" s="246"/>
       <c r="S95" s="245"/>
-      <c r="T95" s="256" t="s">
+      <c r="T95" s="255" t="s">
         <v>267</v>
       </c>
       <c r="U95" s="206" t="s">
@@ -16766,7 +16770,7 @@
     <row r="96" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R96" s="246"/>
       <c r="S96" s="245"/>
-      <c r="T96" s="256"/>
+      <c r="T96" s="255"/>
       <c r="U96" s="207" t="s">
         <v>172</v>
       </c>
@@ -16786,7 +16790,7 @@
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R97" s="246"/>
       <c r="S97" s="245"/>
-      <c r="T97" s="256"/>
+      <c r="T97" s="255"/>
       <c r="U97" s="208" t="s">
         <v>193</v>
       </c>
@@ -16800,7 +16804,7 @@
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R98" s="246"/>
       <c r="S98" s="245"/>
-      <c r="T98" s="256"/>
+      <c r="T98" s="255"/>
       <c r="U98" s="209" t="s">
         <v>278</v>
       </c>
@@ -16810,8 +16814,8 @@
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R99" s="246"/>
       <c r="S99" s="245"/>
-      <c r="T99" s="256"/>
-      <c r="U99" s="255" t="s">
+      <c r="T99" s="255"/>
+      <c r="U99" s="254" t="s">
         <v>279</v>
       </c>
       <c r="V99" s="184" t="s">
@@ -16827,8 +16831,8 @@
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R100" s="246"/>
       <c r="S100" s="245"/>
-      <c r="T100" s="256"/>
-      <c r="U100" s="255"/>
+      <c r="T100" s="255"/>
+      <c r="U100" s="254"/>
       <c r="V100" s="185" t="s">
         <v>197</v>
       </c>
@@ -16842,8 +16846,8 @@
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R101" s="246"/>
       <c r="S101" s="245"/>
-      <c r="T101" s="256"/>
-      <c r="U101" s="255" t="s">
+      <c r="T101" s="255"/>
+      <c r="U101" s="254" t="s">
         <v>280</v>
       </c>
       <c r="V101" s="184" t="s">
@@ -16859,8 +16863,8 @@
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R102" s="246"/>
       <c r="S102" s="245"/>
-      <c r="T102" s="256"/>
-      <c r="U102" s="255"/>
+      <c r="T102" s="255"/>
+      <c r="U102" s="254"/>
       <c r="V102" s="185" t="s">
         <v>197</v>
       </c>
@@ -16874,8 +16878,8 @@
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R103" s="246"/>
       <c r="S103" s="245"/>
-      <c r="T103" s="256"/>
-      <c r="U103" s="255" t="s">
+      <c r="T103" s="255"/>
+      <c r="U103" s="254" t="s">
         <v>281</v>
       </c>
       <c r="V103" s="184" t="s">
@@ -16891,8 +16895,8 @@
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R104" s="246"/>
       <c r="S104" s="245"/>
-      <c r="T104" s="256"/>
-      <c r="U104" s="255"/>
+      <c r="T104" s="255"/>
+      <c r="U104" s="254"/>
       <c r="V104" s="185" t="s">
         <v>197</v>
       </c>
@@ -16906,8 +16910,8 @@
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R105" s="246"/>
       <c r="S105" s="245"/>
-      <c r="T105" s="256"/>
-      <c r="U105" s="255" t="s">
+      <c r="T105" s="255"/>
+      <c r="U105" s="254" t="s">
         <v>282</v>
       </c>
       <c r="V105" s="184" t="s">
@@ -16923,8 +16927,8 @@
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R106" s="246"/>
       <c r="S106" s="245"/>
-      <c r="T106" s="256"/>
-      <c r="U106" s="255"/>
+      <c r="T106" s="255"/>
+      <c r="U106" s="254"/>
       <c r="V106" s="185" t="s">
         <v>197</v>
       </c>
@@ -16938,7 +16942,7 @@
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R107" s="246"/>
       <c r="S107" s="245"/>
-      <c r="T107" s="256" t="s">
+      <c r="T107" s="255" t="s">
         <v>277</v>
       </c>
       <c r="U107" s="210" t="s">
@@ -16961,7 +16965,7 @@
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R108" s="246"/>
       <c r="S108" s="245"/>
-      <c r="T108" s="256"/>
+      <c r="T108" s="255"/>
       <c r="U108" s="207" t="s">
         <v>172</v>
       </c>
@@ -16981,7 +16985,7 @@
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R109" s="246"/>
       <c r="S109" s="245"/>
-      <c r="T109" s="256"/>
+      <c r="T109" s="255"/>
       <c r="U109" s="211" t="s">
         <v>198</v>
       </c>
@@ -16995,7 +16999,7 @@
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R110" s="246"/>
       <c r="S110" s="245"/>
-      <c r="T110" s="256"/>
+      <c r="T110" s="255"/>
       <c r="U110" s="212" t="s">
         <v>283</v>
       </c>
@@ -17003,8 +17007,8 @@
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R111" s="246"/>
       <c r="S111" s="245"/>
-      <c r="T111" s="256"/>
-      <c r="U111" s="255" t="s">
+      <c r="T111" s="255"/>
+      <c r="U111" s="254" t="s">
         <v>279</v>
       </c>
       <c r="V111" s="190" t="s">
@@ -17020,8 +17024,8 @@
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R112" s="246"/>
       <c r="S112" s="245"/>
-      <c r="T112" s="256"/>
-      <c r="U112" s="255"/>
+      <c r="T112" s="255"/>
+      <c r="U112" s="254"/>
       <c r="V112" s="191" t="s">
         <v>85</v>
       </c>
@@ -17035,8 +17039,8 @@
     <row r="113" spans="18:44" x14ac:dyDescent="0.2">
       <c r="R113" s="246"/>
       <c r="S113" s="245"/>
-      <c r="T113" s="256"/>
-      <c r="U113" s="255"/>
+      <c r="T113" s="255"/>
+      <c r="U113" s="254"/>
       <c r="V113" s="192" t="s">
         <v>157</v>
       </c>
@@ -17053,8 +17057,8 @@
     <row r="114" spans="18:44" x14ac:dyDescent="0.2">
       <c r="R114" s="246"/>
       <c r="S114" s="245"/>
-      <c r="T114" s="256"/>
-      <c r="U114" s="255"/>
+      <c r="T114" s="255"/>
+      <c r="U114" s="254"/>
       <c r="V114" s="193" t="s">
         <v>144</v>
       </c>
@@ -17089,8 +17093,8 @@
     <row r="115" spans="18:44" x14ac:dyDescent="0.2">
       <c r="R115" s="246"/>
       <c r="S115" s="245"/>
-      <c r="T115" s="256"/>
-      <c r="U115" s="255"/>
+      <c r="T115" s="255"/>
+      <c r="U115" s="254"/>
       <c r="V115" s="194" t="s">
         <v>114</v>
       </c>
@@ -17178,10 +17182,10 @@
       <c r="V121" s="218">
         <v>14</v>
       </c>
-      <c r="X121" s="253" t="s">
+      <c r="X121" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="Y121" s="253"/>
+      <c r="Y121" s="256"/>
     </row>
     <row r="122" spans="18:44" x14ac:dyDescent="0.2">
       <c r="R122" s="246"/>
@@ -17368,7 +17372,7 @@
     <row r="131" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R131" s="246"/>
       <c r="S131" s="245"/>
-      <c r="T131" s="256" t="s">
+      <c r="T131" s="255" t="s">
         <v>267</v>
       </c>
       <c r="U131" s="181" t="s">
@@ -17391,7 +17395,7 @@
     <row r="132" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R132" s="246"/>
       <c r="S132" s="245"/>
-      <c r="T132" s="256"/>
+      <c r="T132" s="255"/>
       <c r="U132" s="182" t="s">
         <v>172</v>
       </c>
@@ -17411,7 +17415,7 @@
     <row r="133" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R133" s="246"/>
       <c r="S133" s="245"/>
-      <c r="T133" s="256"/>
+      <c r="T133" s="255"/>
       <c r="U133" s="183" t="s">
         <v>193</v>
       </c>
@@ -17425,7 +17429,7 @@
     <row r="134" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R134" s="246"/>
       <c r="S134" s="245"/>
-      <c r="T134" s="256"/>
+      <c r="T134" s="255"/>
       <c r="U134" s="187" t="s">
         <v>278</v>
       </c>
@@ -17435,7 +17439,7 @@
     <row r="135" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R135" s="246"/>
       <c r="S135" s="245"/>
-      <c r="T135" s="256"/>
+      <c r="T135" s="255"/>
       <c r="U135" s="257" t="s">
         <v>279</v>
       </c>
@@ -17452,7 +17456,7 @@
     <row r="136" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R136" s="246"/>
       <c r="S136" s="245"/>
-      <c r="T136" s="256"/>
+      <c r="T136" s="255"/>
       <c r="U136" s="257"/>
       <c r="V136" s="222" t="s">
         <v>197</v>
@@ -17467,7 +17471,7 @@
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R137" s="246"/>
       <c r="S137" s="245"/>
-      <c r="T137" s="256"/>
+      <c r="T137" s="255"/>
       <c r="U137" s="257" t="s">
         <v>280</v>
       </c>
@@ -17484,7 +17488,7 @@
     <row r="138" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R138" s="246"/>
       <c r="S138" s="245"/>
-      <c r="T138" s="256"/>
+      <c r="T138" s="255"/>
       <c r="U138" s="257"/>
       <c r="V138" s="222" t="s">
         <v>197</v>
@@ -17499,7 +17503,7 @@
     <row r="139" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R139" s="246"/>
       <c r="S139" s="245"/>
-      <c r="T139" s="256"/>
+      <c r="T139" s="255"/>
       <c r="U139" s="257" t="s">
         <v>281</v>
       </c>
@@ -17516,7 +17520,7 @@
     <row r="140" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R140" s="246"/>
       <c r="S140" s="245"/>
-      <c r="T140" s="256"/>
+      <c r="T140" s="255"/>
       <c r="U140" s="257"/>
       <c r="V140" s="222" t="s">
         <v>197</v>
@@ -17531,7 +17535,7 @@
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R141" s="246"/>
       <c r="S141" s="245"/>
-      <c r="T141" s="256"/>
+      <c r="T141" s="255"/>
       <c r="U141" s="257" t="s">
         <v>282</v>
       </c>
@@ -17548,7 +17552,7 @@
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R142" s="246"/>
       <c r="S142" s="245"/>
-      <c r="T142" s="256"/>
+      <c r="T142" s="255"/>
       <c r="U142" s="257"/>
       <c r="V142" s="222" t="s">
         <v>197</v>
@@ -17563,7 +17567,7 @@
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R143" s="246"/>
       <c r="S143" s="245"/>
-      <c r="T143" s="256"/>
+      <c r="T143" s="255"/>
       <c r="U143" s="257" t="s">
         <v>286</v>
       </c>
@@ -17580,7 +17584,7 @@
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R144" s="246"/>
       <c r="S144" s="245"/>
-      <c r="T144" s="256"/>
+      <c r="T144" s="255"/>
       <c r="U144" s="257"/>
       <c r="V144" s="222" t="s">
         <v>197</v>
@@ -17595,7 +17599,7 @@
     <row r="145" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R145" s="246"/>
       <c r="S145" s="245"/>
-      <c r="T145" s="256" t="s">
+      <c r="T145" s="255" t="s">
         <v>277</v>
       </c>
       <c r="U145" s="132" t="s">
@@ -17618,7 +17622,7 @@
     <row r="146" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R146" s="246"/>
       <c r="S146" s="245"/>
-      <c r="T146" s="256"/>
+      <c r="T146" s="255"/>
       <c r="U146" s="182" t="s">
         <v>172</v>
       </c>
@@ -17638,7 +17642,7 @@
     <row r="147" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R147" s="246"/>
       <c r="S147" s="245"/>
-      <c r="T147" s="256"/>
+      <c r="T147" s="255"/>
       <c r="U147" s="189" t="s">
         <v>198</v>
       </c>
@@ -17652,7 +17656,7 @@
     <row r="148" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R148" s="246"/>
       <c r="S148" s="245"/>
-      <c r="T148" s="256"/>
+      <c r="T148" s="255"/>
       <c r="U148" s="13" t="s">
         <v>283</v>
       </c>
@@ -17660,7 +17664,7 @@
     <row r="149" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R149" s="246"/>
       <c r="S149" s="245"/>
-      <c r="T149" s="256"/>
+      <c r="T149" s="255"/>
       <c r="U149" s="257" t="s">
         <v>279</v>
       </c>
@@ -17677,7 +17681,7 @@
     <row r="150" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R150" s="246"/>
       <c r="S150" s="245"/>
-      <c r="T150" s="256"/>
+      <c r="T150" s="255"/>
       <c r="U150" s="257"/>
       <c r="V150" s="225" t="s">
         <v>85</v>
@@ -17692,7 +17696,7 @@
     <row r="151" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R151" s="246"/>
       <c r="S151" s="245"/>
-      <c r="T151" s="256"/>
+      <c r="T151" s="255"/>
       <c r="U151" s="257"/>
       <c r="V151" s="226" t="s">
         <v>157</v>
@@ -17710,7 +17714,7 @@
     <row r="152" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R152" s="246"/>
       <c r="S152" s="245"/>
-      <c r="T152" s="256"/>
+      <c r="T152" s="255"/>
       <c r="U152" s="257"/>
       <c r="V152" s="227" t="s">
         <v>144</v>
@@ -17738,7 +17742,7 @@
     <row r="153" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R153" s="246"/>
       <c r="S153" s="245"/>
-      <c r="T153" s="256"/>
+      <c r="T153" s="255"/>
       <c r="U153" s="257"/>
       <c r="V153" s="228" t="s">
         <v>114</v>
@@ -17753,7 +17757,7 @@
     <row r="154" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R154" s="246"/>
       <c r="S154" s="245"/>
-      <c r="T154" s="256"/>
+      <c r="T154" s="255"/>
       <c r="U154" s="257" t="s">
         <v>280</v>
       </c>
@@ -17770,7 +17774,7 @@
     <row r="155" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R155" s="246"/>
       <c r="S155" s="245"/>
-      <c r="T155" s="256"/>
+      <c r="T155" s="255"/>
       <c r="U155" s="257"/>
       <c r="V155" s="225" t="s">
         <v>85</v>
@@ -17785,7 +17789,7 @@
     <row r="156" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R156" s="246"/>
       <c r="S156" s="245"/>
-      <c r="T156" s="256"/>
+      <c r="T156" s="255"/>
       <c r="U156" s="257"/>
       <c r="V156" s="226" t="s">
         <v>157</v>
@@ -17805,7 +17809,7 @@
     <row r="157" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R157" s="246"/>
       <c r="S157" s="245"/>
-      <c r="T157" s="256"/>
+      <c r="T157" s="255"/>
       <c r="U157" s="257"/>
       <c r="V157" s="227" t="s">
         <v>144</v>
@@ -17823,7 +17827,7 @@
     <row r="158" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R158" s="246"/>
       <c r="S158" s="245"/>
-      <c r="T158" s="256"/>
+      <c r="T158" s="255"/>
       <c r="U158" s="257"/>
       <c r="V158" s="228" t="s">
         <v>114</v>
@@ -17860,10 +17864,10 @@
       <c r="U160" s="214" t="s">
         <v>216</v>
       </c>
-      <c r="W160" s="253" t="s">
+      <c r="W160" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="X160" s="253"/>
+      <c r="X160" s="256"/>
       <c r="Y160" s="162"/>
       <c r="Z160" s="162"/>
       <c r="AA160" s="162"/>
@@ -17879,13 +17883,13 @@
       <c r="U161" s="215" t="s">
         <v>219</v>
       </c>
-      <c r="W161" s="253" t="s">
+      <c r="W161" s="256" t="s">
         <v>247</v>
       </c>
-      <c r="X161" s="253"/>
-      <c r="Y161" s="253"/>
-      <c r="Z161" s="253"/>
-      <c r="AA161" s="253"/>
+      <c r="X161" s="256"/>
+      <c r="Y161" s="256"/>
+      <c r="Z161" s="256"/>
+      <c r="AA161" s="256"/>
     </row>
     <row r="162" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R162" s="246"/>
@@ -17924,10 +17928,10 @@
       <c r="V164" s="217">
         <v>14</v>
       </c>
-      <c r="X164" s="253" t="s">
+      <c r="X164" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="Y164" s="253"/>
+      <c r="Y164" s="256"/>
     </row>
     <row r="165" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R165" s="246"/>
@@ -18052,7 +18056,7 @@
     <row r="174" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R174" s="246"/>
       <c r="S174" s="245"/>
-      <c r="T174" s="256" t="s">
+      <c r="T174" s="255" t="s">
         <v>267</v>
       </c>
       <c r="U174" s="181" t="s">
@@ -18075,7 +18079,7 @@
     <row r="175" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R175" s="246"/>
       <c r="S175" s="245"/>
-      <c r="T175" s="256"/>
+      <c r="T175" s="255"/>
       <c r="U175" s="182" t="s">
         <v>172</v>
       </c>
@@ -18095,7 +18099,7 @@
     <row r="176" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R176" s="246"/>
       <c r="S176" s="245"/>
-      <c r="T176" s="256"/>
+      <c r="T176" s="255"/>
       <c r="U176" s="183" t="s">
         <v>193</v>
       </c>
@@ -18109,7 +18113,7 @@
     <row r="177" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R177" s="246"/>
       <c r="S177" s="245"/>
-      <c r="T177" s="256"/>
+      <c r="T177" s="255"/>
       <c r="U177" s="187" t="s">
         <v>278</v>
       </c>
@@ -18118,7 +18122,7 @@
     <row r="178" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R178" s="246"/>
       <c r="S178" s="245"/>
-      <c r="T178" s="256"/>
+      <c r="T178" s="255"/>
       <c r="U178" s="257" t="s">
         <v>279</v>
       </c>
@@ -18135,7 +18139,7 @@
     <row r="179" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R179" s="246"/>
       <c r="S179" s="245"/>
-      <c r="T179" s="256"/>
+      <c r="T179" s="255"/>
       <c r="U179" s="257"/>
       <c r="V179" s="222" t="s">
         <v>197</v>
@@ -18150,7 +18154,7 @@
     <row r="180" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R180" s="246"/>
       <c r="S180" s="245"/>
-      <c r="T180" s="256" t="s">
+      <c r="T180" s="255" t="s">
         <v>277</v>
       </c>
       <c r="U180" s="132" t="s">
@@ -18173,7 +18177,7 @@
     <row r="181" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R181" s="246"/>
       <c r="S181" s="245"/>
-      <c r="T181" s="256"/>
+      <c r="T181" s="255"/>
       <c r="U181" s="182" t="s">
         <v>172</v>
       </c>
@@ -18193,7 +18197,7 @@
     <row r="182" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R182" s="246"/>
       <c r="S182" s="245"/>
-      <c r="T182" s="256"/>
+      <c r="T182" s="255"/>
       <c r="U182" s="189" t="s">
         <v>198</v>
       </c>
@@ -18207,7 +18211,7 @@
     <row r="183" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R183" s="246"/>
       <c r="S183" s="245"/>
-      <c r="T183" s="256"/>
+      <c r="T183" s="255"/>
       <c r="U183" s="13" t="s">
         <v>283</v>
       </c>
@@ -18215,7 +18219,7 @@
     <row r="184" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R184" s="246"/>
       <c r="S184" s="245"/>
-      <c r="T184" s="256"/>
+      <c r="T184" s="255"/>
       <c r="U184" s="257" t="s">
         <v>279</v>
       </c>
@@ -18232,7 +18236,7 @@
     <row r="185" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R185" s="246"/>
       <c r="S185" s="245"/>
-      <c r="T185" s="256"/>
+      <c r="T185" s="255"/>
       <c r="U185" s="257"/>
       <c r="V185" s="225" t="s">
         <v>85</v>
@@ -18247,7 +18251,7 @@
     <row r="186" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R186" s="246"/>
       <c r="S186" s="245"/>
-      <c r="T186" s="256"/>
+      <c r="T186" s="255"/>
       <c r="U186" s="257"/>
       <c r="V186" s="226" t="s">
         <v>157</v>
@@ -18265,7 +18269,7 @@
     <row r="187" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R187" s="246"/>
       <c r="S187" s="245"/>
-      <c r="T187" s="256"/>
+      <c r="T187" s="255"/>
       <c r="U187" s="257"/>
       <c r="V187" s="227" t="s">
         <v>144</v>
@@ -18291,7 +18295,7 @@
     <row r="188" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R188" s="246"/>
       <c r="S188" s="245"/>
-      <c r="T188" s="256"/>
+      <c r="T188" s="255"/>
       <c r="U188" s="257"/>
       <c r="V188" s="228" t="s">
         <v>114</v>
@@ -18328,11 +18332,11 @@
       <c r="U190" s="214" t="s">
         <v>221</v>
       </c>
-      <c r="W190" s="253" t="s">
+      <c r="W190" s="256" t="s">
         <v>248</v>
       </c>
-      <c r="X190" s="253"/>
-      <c r="Y190" s="253"/>
+      <c r="X190" s="256"/>
+      <c r="Y190" s="256"/>
     </row>
     <row r="191" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R191" s="246"/>
@@ -18383,10 +18387,10 @@
       <c r="V194" s="217">
         <v>14</v>
       </c>
-      <c r="X194" s="253" t="s">
+      <c r="X194" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="Y194" s="253"/>
+      <c r="Y194" s="256"/>
     </row>
     <row r="195" spans="18:41" x14ac:dyDescent="0.2">
       <c r="R195" s="246"/>
@@ -18727,7 +18731,7 @@
     <row r="214" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R214" s="246"/>
       <c r="S214" s="245"/>
-      <c r="T214" s="256" t="s">
+      <c r="T214" s="255" t="s">
         <v>277</v>
       </c>
       <c r="U214" s="132" t="s">
@@ -18750,7 +18754,7 @@
     <row r="215" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R215" s="246"/>
       <c r="S215" s="245"/>
-      <c r="T215" s="256"/>
+      <c r="T215" s="255"/>
       <c r="U215" s="182" t="s">
         <v>172</v>
       </c>
@@ -18770,7 +18774,7 @@
     <row r="216" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R216" s="246"/>
       <c r="S216" s="245"/>
-      <c r="T216" s="256"/>
+      <c r="T216" s="255"/>
       <c r="U216" s="189" t="s">
         <v>198</v>
       </c>
@@ -18784,7 +18788,7 @@
     <row r="217" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R217" s="246"/>
       <c r="S217" s="245"/>
-      <c r="T217" s="256"/>
+      <c r="T217" s="255"/>
       <c r="U217" s="13" t="s">
         <v>283</v>
       </c>
@@ -18792,7 +18796,7 @@
     <row r="218" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R218" s="246"/>
       <c r="S218" s="245"/>
-      <c r="T218" s="256"/>
+      <c r="T218" s="255"/>
       <c r="U218" s="257" t="s">
         <v>279</v>
       </c>
@@ -18809,7 +18813,7 @@
     <row r="219" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R219" s="246"/>
       <c r="S219" s="245"/>
-      <c r="T219" s="256"/>
+      <c r="T219" s="255"/>
       <c r="U219" s="257"/>
       <c r="V219" s="225" t="s">
         <v>85</v>
@@ -18824,7 +18828,7 @@
     <row r="220" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R220" s="246"/>
       <c r="S220" s="245"/>
-      <c r="T220" s="256"/>
+      <c r="T220" s="255"/>
       <c r="U220" s="257"/>
       <c r="V220" s="226" t="s">
         <v>157</v>
@@ -18842,7 +18846,7 @@
     <row r="221" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R221" s="246"/>
       <c r="S221" s="245"/>
-      <c r="T221" s="256"/>
+      <c r="T221" s="255"/>
       <c r="U221" s="257"/>
       <c r="V221" s="227" t="s">
         <v>144</v>
@@ -18868,7 +18872,7 @@
     <row r="222" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R222" s="246"/>
       <c r="S222" s="245"/>
-      <c r="T222" s="256"/>
+      <c r="T222" s="255"/>
       <c r="U222" s="257"/>
       <c r="V222" s="228" t="s">
         <v>114</v>
@@ -18883,7 +18887,7 @@
     <row r="223" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R223" s="246"/>
       <c r="S223" s="245"/>
-      <c r="T223" s="256"/>
+      <c r="T223" s="255"/>
       <c r="U223" s="257" t="s">
         <v>280</v>
       </c>
@@ -18900,7 +18904,7 @@
     <row r="224" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R224" s="246"/>
       <c r="S224" s="245"/>
-      <c r="T224" s="256"/>
+      <c r="T224" s="255"/>
       <c r="U224" s="257"/>
       <c r="V224" s="225" t="s">
         <v>85</v>
@@ -18915,7 +18919,7 @@
     <row r="225" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R225" s="246"/>
       <c r="S225" s="245"/>
-      <c r="T225" s="256"/>
+      <c r="T225" s="255"/>
       <c r="U225" s="257"/>
       <c r="V225" s="226" t="s">
         <v>157</v>
@@ -18933,7 +18937,7 @@
     <row r="226" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R226" s="246"/>
       <c r="S226" s="245"/>
-      <c r="T226" s="256"/>
+      <c r="T226" s="255"/>
       <c r="U226" s="257"/>
       <c r="V226" s="227" t="s">
         <v>144</v>
@@ -18951,7 +18955,7 @@
     <row r="227" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R227" s="246"/>
       <c r="S227" s="245"/>
-      <c r="T227" s="256"/>
+      <c r="T227" s="255"/>
       <c r="U227" s="257"/>
       <c r="V227" s="228" t="s">
         <v>114</v>
@@ -18988,9 +18992,9 @@
       <c r="U229" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="W229" s="253"/>
-      <c r="X229" s="253"/>
-      <c r="Y229" s="253"/>
+      <c r="W229" s="256"/>
+      <c r="X229" s="256"/>
+      <c r="Y229" s="256"/>
     </row>
     <row r="230" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R230" s="246"/>
@@ -19039,10 +19043,10 @@
       <c r="V233" s="217">
         <v>14</v>
       </c>
-      <c r="X233" s="253" t="s">
+      <c r="X233" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="Y233" s="253"/>
+      <c r="Y233" s="256"/>
     </row>
     <row r="234" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R234" s="246"/>
@@ -19259,7 +19263,7 @@
     <row r="249" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R249" s="246"/>
       <c r="S249" s="245"/>
-      <c r="T249" s="256" t="s">
+      <c r="T249" s="255" t="s">
         <v>277</v>
       </c>
       <c r="U249" s="132" t="s">
@@ -19282,7 +19286,7 @@
     <row r="250" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R250" s="246"/>
       <c r="S250" s="245"/>
-      <c r="T250" s="256"/>
+      <c r="T250" s="255"/>
       <c r="U250" s="182" t="s">
         <v>172</v>
       </c>
@@ -19302,7 +19306,7 @@
     <row r="251" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R251" s="246"/>
       <c r="S251" s="245"/>
-      <c r="T251" s="256"/>
+      <c r="T251" s="255"/>
       <c r="U251" s="189" t="s">
         <v>198</v>
       </c>
@@ -19316,7 +19320,7 @@
     <row r="252" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R252" s="246"/>
       <c r="S252" s="245"/>
-      <c r="T252" s="256"/>
+      <c r="T252" s="255"/>
       <c r="U252" s="13" t="s">
         <v>283</v>
       </c>
@@ -19324,7 +19328,7 @@
     <row r="253" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R253" s="246"/>
       <c r="S253" s="245"/>
-      <c r="T253" s="256"/>
+      <c r="T253" s="255"/>
       <c r="U253" s="257" t="s">
         <v>279</v>
       </c>
@@ -19341,7 +19345,7 @@
     <row r="254" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R254" s="246"/>
       <c r="S254" s="245"/>
-      <c r="T254" s="256"/>
+      <c r="T254" s="255"/>
       <c r="U254" s="257"/>
       <c r="V254" s="225" t="s">
         <v>85</v>
@@ -19356,7 +19360,7 @@
     <row r="255" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R255" s="246"/>
       <c r="S255" s="245"/>
-      <c r="T255" s="256"/>
+      <c r="T255" s="255"/>
       <c r="U255" s="257"/>
       <c r="V255" s="226" t="s">
         <v>157</v>
@@ -19374,7 +19378,7 @@
     <row r="256" spans="18:34" x14ac:dyDescent="0.2">
       <c r="R256" s="246"/>
       <c r="S256" s="245"/>
-      <c r="T256" s="256"/>
+      <c r="T256" s="255"/>
       <c r="U256" s="257"/>
       <c r="V256" s="227" t="s">
         <v>144</v>
@@ -19400,7 +19404,7 @@
     <row r="257" spans="18:27" x14ac:dyDescent="0.2">
       <c r="R257" s="246"/>
       <c r="S257" s="245"/>
-      <c r="T257" s="256"/>
+      <c r="T257" s="255"/>
       <c r="U257" s="257"/>
       <c r="V257" s="228" t="s">
         <v>114</v>
@@ -19429,7 +19433,7 @@
       </c>
     </row>
     <row r="260" spans="18:27" x14ac:dyDescent="0.2">
-      <c r="R260" s="256" t="s">
+      <c r="R260" s="255" t="s">
         <v>266</v>
       </c>
       <c r="S260" s="181" t="s">
@@ -19441,14 +19445,14 @@
       <c r="U260" s="72">
         <v>20</v>
       </c>
-      <c r="W260" s="253" t="s">
+      <c r="W260" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="X260" s="253"/>
-      <c r="Y260" s="253"/>
+      <c r="X260" s="256"/>
+      <c r="Y260" s="256"/>
     </row>
     <row r="261" spans="18:27" x14ac:dyDescent="0.2">
-      <c r="R261" s="256"/>
+      <c r="R261" s="255"/>
       <c r="S261" s="182" t="s">
         <v>172</v>
       </c>
@@ -19466,7 +19470,7 @@
       </c>
     </row>
     <row r="262" spans="18:27" x14ac:dyDescent="0.2">
-      <c r="R262" s="256"/>
+      <c r="R262" s="255"/>
       <c r="S262" s="181" t="s">
         <v>290</v>
       </c>
@@ -19535,8 +19539,6 @@
     <mergeCell ref="U137:U138"/>
     <mergeCell ref="U139:U140"/>
     <mergeCell ref="U143:U144"/>
-    <mergeCell ref="Y107:AC107"/>
-    <mergeCell ref="U111:U115"/>
     <mergeCell ref="T107:T115"/>
     <mergeCell ref="Z114:AH114"/>
     <mergeCell ref="U184:U188"/>
@@ -19564,6 +19566,8 @@
     <mergeCell ref="Z44:AF44"/>
     <mergeCell ref="Z46:AF46"/>
     <mergeCell ref="U99:U100"/>
+    <mergeCell ref="Y107:AC107"/>
+    <mergeCell ref="U111:U115"/>
     <mergeCell ref="BD28:BG28"/>
     <mergeCell ref="AP18:AT18"/>
     <mergeCell ref="AK19:AN19"/>
@@ -19619,8 +19623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -19659,13 +19663,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="264">
+      <c r="A2" s="267">
         <v>1</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="264" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D2" s="261" t="s">
@@ -19682,9 +19686,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="266"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="262"/>
       <c r="E3" s="26" t="s">
         <v>85</v>
@@ -19697,9 +19701,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="265"/>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
       <c r="D4" s="263"/>
       <c r="E4" s="26" t="s">
         <v>86</v>
@@ -19712,13 +19716,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="264">
+      <c r="A5" s="267">
         <v>3</v>
       </c>
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="264" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="261" t="s">
@@ -19735,9 +19739,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="265"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
+      <c r="A6" s="269"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="263"/>
       <c r="E6" s="26" t="s">
         <v>86</v>
@@ -19750,13 +19754,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="264">
+      <c r="A7" s="267">
         <v>4</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="264" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="267" t="s">
+      <c r="C7" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D7" s="261" t="s">
@@ -19773,9 +19777,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="265"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="269"/>
+      <c r="A8" s="269"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="263"/>
       <c r="E8" s="26" t="s">
         <v>86</v>
@@ -19788,13 +19792,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="264">
+      <c r="A9" s="267">
         <v>5</v>
       </c>
-      <c r="B9" s="267" t="s">
+      <c r="B9" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="267" t="s">
+      <c r="C9" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D9" s="261" t="s">
@@ -19811,9 +19815,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="265"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="263"/>
       <c r="E10" s="26" t="s">
         <v>86</v>
@@ -19826,13 +19830,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="264">
+      <c r="A11" s="267">
         <v>6</v>
       </c>
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="264" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="267" t="s">
+      <c r="C11" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D11" s="261" t="s">
@@ -19849,9 +19853,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="265"/>
-      <c r="B12" s="269"/>
-      <c r="C12" s="269"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="263"/>
       <c r="E12" s="26" t="s">
         <v>86</v>
@@ -19864,13 +19868,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="264">
+      <c r="A13" s="267">
         <v>7</v>
       </c>
-      <c r="B13" s="267" t="s">
+      <c r="B13" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="267" t="s">
+      <c r="C13" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D13" s="261" t="s">
@@ -19887,9 +19891,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="265"/>
-      <c r="B14" s="269"/>
-      <c r="C14" s="269"/>
+      <c r="A14" s="269"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="263"/>
       <c r="E14" s="26" t="s">
         <v>86</v>
@@ -19902,13 +19906,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="264">
+      <c r="A15" s="267">
         <v>8</v>
       </c>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="264" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="267" t="s">
+      <c r="C15" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D15" s="261" t="s">
@@ -19925,9 +19929,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="265"/>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="263"/>
       <c r="E16" s="26" t="s">
         <v>114</v>
@@ -19940,13 +19944,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="264">
+      <c r="A17" s="267">
         <v>9</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="264" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="267" t="s">
+      <c r="C17" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D17" s="261" t="s">
@@ -19963,9 +19967,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="266"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="262"/>
       <c r="E18" s="26" t="s">
         <v>114</v>
@@ -19978,9 +19982,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="265"/>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="263"/>
       <c r="E19" s="26" t="s">
         <v>114</v>
@@ -19993,13 +19997,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="264">
+      <c r="A20" s="267">
         <v>10</v>
       </c>
-      <c r="B20" s="267" t="s">
+      <c r="B20" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C20" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D20" s="261" t="s">
@@ -20016,9 +20020,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="266"/>
-      <c r="B21" s="268"/>
-      <c r="C21" s="268"/>
+      <c r="A21" s="268"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="262"/>
       <c r="E21" s="26" t="s">
         <v>114</v>
@@ -20031,9 +20035,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="265"/>
-      <c r="B22" s="269"/>
-      <c r="C22" s="269"/>
+      <c r="A22" s="269"/>
+      <c r="B22" s="266"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="263"/>
       <c r="E22" s="26" t="s">
         <v>114</v>
@@ -20046,13 +20050,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="264">
+      <c r="A23" s="267">
         <v>11</v>
       </c>
-      <c r="B23" s="267" t="s">
+      <c r="B23" s="264" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="267" t="s">
+      <c r="C23" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D23" s="261" t="s">
@@ -20069,9 +20073,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="266"/>
-      <c r="B24" s="268"/>
-      <c r="C24" s="268"/>
+      <c r="A24" s="268"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="262"/>
       <c r="E24" s="26" t="s">
         <v>114</v>
@@ -20084,9 +20088,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="265"/>
-      <c r="B25" s="269"/>
-      <c r="C25" s="269"/>
+      <c r="A25" s="269"/>
+      <c r="B25" s="266"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="263"/>
       <c r="E25" s="26" t="s">
         <v>114</v>
@@ -20099,13 +20103,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="264">
+      <c r="A26" s="267">
         <v>12</v>
       </c>
-      <c r="B26" s="267" t="s">
+      <c r="B26" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="264" t="s">
         <v>296</v>
       </c>
       <c r="D26" s="261" t="s">
@@ -20122,9 +20126,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="266"/>
-      <c r="B27" s="268"/>
-      <c r="C27" s="268"/>
+      <c r="A27" s="268"/>
+      <c r="B27" s="265"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="262"/>
       <c r="E27" s="26" t="s">
         <v>114</v>
@@ -20137,9 +20141,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="265"/>
-      <c r="B28" s="269"/>
-      <c r="C28" s="269"/>
+      <c r="A28" s="269"/>
+      <c r="B28" s="266"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="263"/>
       <c r="E28" s="26" t="s">
         <v>114</v>
@@ -20152,13 +20156,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="264">
+      <c r="A29" s="267">
         <v>15</v>
       </c>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="264" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="267" t="s">
+      <c r="C29" s="264" t="s">
         <v>294</v>
       </c>
       <c r="D29" s="261" t="s">
@@ -20175,9 +20179,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="266"/>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
+      <c r="A30" s="268"/>
+      <c r="B30" s="265"/>
+      <c r="C30" s="265"/>
       <c r="D30" s="262"/>
       <c r="E30" s="26" t="s">
         <v>137</v>
@@ -20190,9 +20194,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="265"/>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
+      <c r="A31" s="269"/>
+      <c r="B31" s="266"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="263"/>
       <c r="E31" s="26" t="s">
         <v>138</v>
@@ -20205,13 +20209,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="264">
+      <c r="A32" s="267">
         <v>16</v>
       </c>
-      <c r="B32" s="267" t="s">
+      <c r="B32" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="267" t="s">
+      <c r="C32" s="264" t="s">
         <v>294</v>
       </c>
       <c r="D32" s="261" t="s">
@@ -20228,9 +20232,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="265"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
+      <c r="A33" s="269"/>
+      <c r="B33" s="266"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="263"/>
       <c r="E33" s="26" t="s">
         <v>144</v>
@@ -20243,13 +20247,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="264">
+      <c r="A34" s="267">
         <v>17</v>
       </c>
-      <c r="B34" s="267" t="s">
+      <c r="B34" s="264" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="267" t="s">
+      <c r="C34" s="264" t="s">
         <v>298</v>
       </c>
       <c r="D34" s="261"/>
@@ -20264,9 +20268,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="266"/>
-      <c r="B35" s="268"/>
-      <c r="C35" s="268"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="265"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="262"/>
       <c r="E35" s="26" t="s">
         <v>302</v>
@@ -20277,9 +20281,9 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="265"/>
-      <c r="B36" s="269"/>
-      <c r="C36" s="269"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="266"/>
       <c r="D36" s="263"/>
       <c r="E36" s="26" t="s">
         <v>149</v>
@@ -20290,13 +20294,13 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="264">
+      <c r="A37" s="267">
         <v>18</v>
       </c>
-      <c r="B37" s="267" t="s">
+      <c r="B37" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="267" t="s">
+      <c r="C37" s="264" t="s">
         <v>294</v>
       </c>
       <c r="D37" s="261" t="s">
@@ -20313,9 +20317,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="266"/>
-      <c r="B38" s="268"/>
-      <c r="C38" s="268"/>
+      <c r="A38" s="268"/>
+      <c r="B38" s="265"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="262"/>
       <c r="E38" s="26" t="s">
         <v>302</v>
@@ -20328,9 +20332,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="265"/>
-      <c r="B39" s="269"/>
-      <c r="C39" s="269"/>
+      <c r="A39" s="269"/>
+      <c r="B39" s="266"/>
+      <c r="C39" s="266"/>
       <c r="D39" s="263"/>
       <c r="E39" s="26" t="s">
         <v>149</v>
@@ -20343,13 +20347,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="264">
+      <c r="A40" s="267">
         <v>19</v>
       </c>
-      <c r="B40" s="267" t="s">
+      <c r="B40" s="264" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="267" t="s">
+      <c r="C40" s="264" t="s">
         <v>293</v>
       </c>
       <c r="D40" s="261"/>
@@ -20364,9 +20368,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="266"/>
-      <c r="B41" s="268"/>
-      <c r="C41" s="268"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="265"/>
+      <c r="C41" s="265"/>
       <c r="D41" s="262"/>
       <c r="E41" s="26" t="s">
         <v>114</v>
@@ -20377,13 +20381,13 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="264">
+      <c r="A42" s="267">
         <v>20</v>
       </c>
-      <c r="B42" s="267" t="s">
+      <c r="B42" s="264" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="267" t="s">
+      <c r="C42" s="264" t="s">
         <v>293</v>
       </c>
       <c r="D42" s="261"/>
@@ -20398,9 +20402,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="266"/>
-      <c r="B43" s="268"/>
-      <c r="C43" s="268"/>
+      <c r="A43" s="268"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="265"/>
       <c r="D43" s="262"/>
       <c r="E43" s="26" t="s">
         <v>114</v>
@@ -20425,13 +20429,30 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
@@ -20440,46 +20461,29 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
